--- a/testReport.xlsx
+++ b/testReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_java_code\ZH_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AA4EFD-C5A6-433D-8C18-0BFCFFF0BD27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A6EE25-E5D5-456E-866D-A33DE9679FD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>张是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +399,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -398,159 +416,222 @@
       <c r="C2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>10001</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>10002</v>
+      </c>
+      <c r="D4">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>10003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>10004</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>10005</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>10006</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>10007</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>10008</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>10009</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
         <v>40</v>
       </c>
-      <c r="C3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>40</v>
-      </c>
-      <c r="C9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10010</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10011</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C14">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10012</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C15">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C16">
-        <v>10000</v>
+        <v>10014</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +639,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C17">
-        <v>10000</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +650,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C18">
-        <v>10000</v>
+        <v>10016</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,10 +661,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C19">
-        <v>10000</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,10 +672,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C20">
-        <v>10000</v>
+        <v>10018</v>
       </c>
     </row>
   </sheetData>

--- a/testReport.xlsx
+++ b/testReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_java_code\ZH_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A6EE25-E5D5-456E-866D-A33DE9679FD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8B3E34-F5E1-4648-AD06-83A40DB2414C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -384,7 +380,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -403,7 +399,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -444,9 +440,6 @@
       <c r="C4">
         <v>10002</v>
       </c>
-      <c r="D4">
-        <v>53</v>
-      </c>
       <c r="E4">
         <v>33</v>
       </c>
@@ -461,9 +454,6 @@
       <c r="C5">
         <v>10003</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
       <c r="E5">
         <v>34</v>
       </c>
@@ -478,9 +468,6 @@
       <c r="C6">
         <v>10004</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
       <c r="E6">
         <v>35</v>
       </c>
@@ -495,9 +482,6 @@
       <c r="C7">
         <v>10005</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
       <c r="E7">
         <v>36</v>
       </c>
@@ -512,9 +496,6 @@
       <c r="C8">
         <v>10006</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
       <c r="E8">
         <v>37</v>
       </c>
@@ -529,9 +510,6 @@
       <c r="C9">
         <v>10007</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
       <c r="E9">
         <v>38</v>
       </c>
@@ -546,9 +524,6 @@
       <c r="C10">
         <v>10008</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
       <c r="E10">
         <v>39</v>
       </c>
@@ -563,9 +538,6 @@
       <c r="C11">
         <v>10009</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
       <c r="E11">
         <v>40</v>
       </c>
@@ -580,9 +552,6 @@
       <c r="C12">
         <v>10010</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -594,9 +563,6 @@
       <c r="C13">
         <v>10011</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -607,9 +573,6 @@
       </c>
       <c r="C14">
         <v>10012</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">

--- a/testReport.xlsx
+++ b/testReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_java_code\ZH_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ZH_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8B3E34-F5E1-4648-AD06-83A40DB2414C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A5C44D-E649-4DC3-8A2C-8CBCD15D9033}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,20 +39,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张2</t>
+  </si>
+  <si>
+    <t>张3</t>
+  </si>
+  <si>
+    <t>张4</t>
+  </si>
+  <si>
+    <t>张5</t>
+  </si>
+  <si>
+    <t>张6</t>
+  </si>
+  <si>
+    <t>张7</t>
+  </si>
+  <si>
+    <t>张8</t>
+  </si>
+  <si>
+    <t>张9</t>
+  </si>
+  <si>
+    <t>张10</t>
+  </si>
+  <si>
+    <t>张11</t>
+  </si>
+  <si>
+    <t>张12</t>
+  </si>
+  <si>
+    <t>张13</t>
+  </si>
+  <si>
+    <t>张14</t>
+  </si>
+  <si>
+    <t>张15</t>
+  </si>
+  <si>
+    <t>张16</t>
+  </si>
+  <si>
+    <t>张17</t>
+  </si>
+  <si>
+    <t>张18</t>
+  </si>
+  <si>
+    <t>张19</t>
   </si>
 </sst>
 </file>
@@ -380,12 +430,12 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,15 +446,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -416,9 +466,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>41</v>
@@ -430,9 +480,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>42</v>
@@ -444,9 +494,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>43</v>
@@ -458,9 +508,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>44</v>
@@ -472,9 +522,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>45</v>
@@ -486,9 +536,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>46</v>
@@ -500,9 +550,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>47</v>
@@ -514,9 +564,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>48</v>
@@ -528,9 +578,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>49</v>
@@ -542,9 +592,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>50</v>
@@ -553,9 +603,9 @@
         <v>10010</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>51</v>
@@ -564,9 +614,9 @@
         <v>10011</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>52</v>
@@ -575,9 +625,9 @@
         <v>10012</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>53</v>
@@ -586,9 +636,9 @@
         <v>10013</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>54</v>
@@ -597,9 +647,9 @@
         <v>10014</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>55</v>
@@ -608,9 +658,9 @@
         <v>10015</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>56</v>
@@ -619,9 +669,9 @@
         <v>10016</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>57</v>
@@ -630,9 +680,9 @@
         <v>10017</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>58</v>
